--- a/data/trans_camb/P57GLOBAL_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P57GLOBAL_R-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P57GLOBAL_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P57GLOBAL_R-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -637,12 +637,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,09</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-27,78</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,2</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-30,85</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-29,14</t>
         </is>
       </c>
     </row>
@@ -690,42 +690,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>-3,54; 8,94</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-36,15; -19,53</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-10,59; 0,21</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-36,31; -24,6</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,23; 3,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,31; -24,0</t>
         </is>
       </c>
     </row>
@@ -743,42 +743,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>3,79%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-34,03%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-5,71%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-33,89%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,11%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,79%</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>-4,13; 11,39</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-42,93; -24,99</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-11,58; 0,16</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-39,31; -28,0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,96; 3,98</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,18; -28,47</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,31</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,59</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,96</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,32</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,74</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,66</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,9</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,62</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,66; -0,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,63; 26,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,67; 7,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,25; -4,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,24; 19,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,83; -5,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,51; -4,24</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,98; 21,05</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,37; -1,39</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,05%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,79%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,78%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,17%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,9%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,09%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,54%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,49%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,75; -0,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,21; 44,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,16; 11,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,07; -6,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,5; 29,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,67; -8,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,54; -6,7</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,07; 33,66</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,15; -2,23</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,23</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,37</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,3</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,04</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>24,54</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,24</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,32</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,58</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,02</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,85; 9,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,11; 21,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,72; -6,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,22; 25,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,06; 31,71</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,94; 4,33</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,05; 15,24</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,7; 24,36</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,1; -3,45</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,38%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,83%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,91%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,04%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,55%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,86%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,99%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,74%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,53; 15,9</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,33; 35,82</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,66; -11,3</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,0; 47,68</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,52; 60,17</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,09; 7,81</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,92; 26,23</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,1; 42,29</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,17; -5,84</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,49</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-24,88</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-38,02</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,93</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-36,31</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,89</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-18,78</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-37,13</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,5; -0,83</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,45; -17,3</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,04; -30,24</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,26; 7,33</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,29; -5,82</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,08; -29,21</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,45; 0,83</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,63; -13,9</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,45; -31,34</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,33%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,33%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-52,46%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,14%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-50,97%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,03%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,13%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-51,67%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,4; -1,09</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,31; -24,86</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,97; -42,65</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,7; 11,0</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,2; -8,48</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,96; -43,29</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,06; 1,12</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,9; -19,83</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,87; -44,8</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-23,22</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,08</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,76</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,29</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,11</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,68</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,64</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,58</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,68</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,92; -14,44</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,54; 17,23</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,51; 18,43</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,62; -4,83</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,82; 11,26</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,2; 11,51</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,49; -11,99</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,02; 12,0</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,51; 13,2</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,64%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,43%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,51%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,2%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,56%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,04%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,04%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,35%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,56; -18,64</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,31; 22,79</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,4; 24,05</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,27; -6,3</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,78; 13,75</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,2; 13,91</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,49; -14,68</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,47; 14,83</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,29; 16,51</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,33</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,02</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-30,75</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,51</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,93</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-32,64</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,98</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-31,71</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,14; 1,49</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,03; 15,37</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,55; -22,75</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,03; 11,41</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,51; 14,59</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,7; -25,83</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,09; 4,74</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,93; 13,15</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,78; -26,42</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,84%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,2%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,96%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,13%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,78%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-44,34%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,14%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,98%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,67%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,3; 2,21</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,38; 22,92</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,64; -33,94</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,97; 16,47</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,73; 20,9</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,61; -37,02</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,11; 6,88</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,98; 19,04</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,01; -37,75</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,87</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>31,11</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,68</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,63</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>38,65</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,9</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,89</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>34,95</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,83</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,89; 13,44</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,14; 35,94</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,51; 17,95</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,09; 27,47</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>33,98; 43,65</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,91; 20,83</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,11; 18,46</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,78; 38,54</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,81; 17,94</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,58%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,6%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,63%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,34%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>77,44%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,87%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,67%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>67,32%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,64%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,27; 26,45</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>45,73; 71,49</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,63; 34,85</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>30,76; 59,29</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>63,94; 94,79</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,81; 44,69</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,07; 37,57</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>58,63; 78,33</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,15; 36,14</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,06</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,81</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,84</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,61</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,74</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,17</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,56</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,54; 11,3</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,67; 12,96</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,73; 3,77</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,56; 4,99</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,03; 9,48</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,35; 2,98</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,5; 6,94</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,08; 10,3</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,53; 2,09</t>
         </is>
       </c>
     </row>
@@ -2250,47 +2250,47 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,67%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,77%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,4%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,49%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,23%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,51%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,82%</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,27; 13,88</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,71; 16,05</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,61; 4,57</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,74; 5,8</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,5; 11,05</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,74; 3,42</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,85; 8,21</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,01; 12,26</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,15; 2,45</t>
         </is>
       </c>
     </row>
@@ -2360,47 +2360,47 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,56</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,48</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,14</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,49</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,54</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,0</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,32</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,8; 0,71</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,25; 13,44</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,5; -4,39</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,0; 5,23</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,56; 14,63</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,72; -5,32</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,68; 2,4</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,47; 13,41</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,56; -5,55</t>
         </is>
       </c>
     </row>
@@ -2466,47 +2466,47 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,22%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,3%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,13%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,28%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,42%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,81%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,26%</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,29; 1,02</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,92; 19,52</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,05; -6,43</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,37; 7,38</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,37; 20,64</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,3; -7,45</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,94; 3,39</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,49; 18,99</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,31; -7,87</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P57GLOBAL_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P57GLOBAL_R-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-2,22</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-27,78</t>
+          <t>-28,28</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-5,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-30,85</t>
+          <t>-30,74</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-3,54</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-29,14</t>
+          <t>-29,53</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,85; 4,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-36,15; -19,53</t>
+          <t>-37,47; -19,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,27; 0,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-36,31; -24,6</t>
+          <t>-36,55; -24,52</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,86; 0,71</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-34,31; -24,0</t>
+          <t>-34,99; -24,19</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,72%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-34,03%</t>
+          <t>-34,65%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,49%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-33,89%</t>
+          <t>-33,77%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,11%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-33,79%</t>
+          <t>-34,25%</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,67; 5,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-42,93; -24,99</t>
+          <t>-44,52; -25,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,03; 0,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-39,31; -28,0</t>
+          <t>-39,42; -27,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,96; 0,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-39,18; -28,47</t>
+          <t>-40,06; -28,62</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-11,74</t>
+          <t>-11,76</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-5,62</t>
+          <t>-5,64</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 7,14</t>
+          <t>-6,99; 7,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-16,83; -5,79</t>
+          <t>-16,99; -5,78</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-10,37; -1,39</t>
+          <t>-10,58; -1,43</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-16,9%</t>
+          <t>-16,93%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-8,49%</t>
+          <t>-8,53%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-10,16; 11,96</t>
+          <t>-10,63; 11,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-23,67; -8,76</t>
+          <t>-23,67; -8,75</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-15,15; -2,23</t>
+          <t>-15,46; -2,24</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-15,3</t>
+          <t>-15,75</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-3,24</t>
+          <t>-3,35</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-9,02</t>
+          <t>-9,37</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-22,72; -6,87</t>
+          <t>-23,35; -7,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,94; 4,33</t>
+          <t>-9,97; 4,29</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-14,1; -3,45</t>
+          <t>-14,42; -3,69</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-23,83%</t>
+          <t>-24,53%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-5,55%</t>
+          <t>-5,74%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-14,74%</t>
+          <t>-15,31%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-33,66; -11,3</t>
+          <t>-34,52; -12,01</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-16,09; 7,81</t>
+          <t>-16,16; 7,88</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-22,17; -5,84</t>
+          <t>-22,75; -6,34</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-7,49</t>
+          <t>-18,47</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-38,02</t>
+          <t>-38,67</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>-7,82</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-36,31</t>
+          <t>-42,23</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-2,89</t>
+          <t>-13,04</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-37,13</t>
+          <t>-40,92</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-13,5; -0,83</t>
+          <t>-25,72; -11,24</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-46,04; -30,24</t>
+          <t>-47,07; -30,98</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 7,33</t>
+          <t>-14,61; -1,51</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-43,08; -29,21</t>
+          <t>-53,78; -33,17</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-7,45; 0,83</t>
+          <t>-18,23; -8,12</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-42,45; -31,34</t>
+          <t>-49,87; -34,28</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-10,33%</t>
+          <t>-25,49%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-52,46%</t>
+          <t>-53,35%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>-10,98%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-50,97%</t>
+          <t>-59,27%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-4,03%</t>
+          <t>-18,14%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-51,67%</t>
+          <t>-56,95%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-17,4; -1,09</t>
+          <t>-34,32; -16,34</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-60,97; -42,65</t>
+          <t>-62,38; -43,88</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 11,0</t>
+          <t>-19,47; -2,13</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-58,96; -43,29</t>
+          <t>-75,12; -47,97</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-10,06; 1,12</t>
+          <t>-24,68; -11,57</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-57,87; -44,8</t>
+          <t>-67,39; -48,69</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>11,76</t>
+          <t>11,8</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>5,68</t>
+          <t>5,82</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>8,68</t>
+          <t>8,76</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>4,51; 18,43</t>
+          <t>4,56; 18,41</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,2; 11,51</t>
+          <t>0,54; 11,59</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>4,51; 13,2</t>
+          <t>4,72; 13,22</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>14,51%</t>
+          <t>14,55%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>6,56%</t>
+          <t>6,72%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>10,35%</t>
+          <t>10,45%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>5,4; 24,05</t>
+          <t>5,58; 24,08</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>0,2; 13,91</t>
+          <t>0,6; 14,23</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>5,29; 16,51</t>
+          <t>5,44; 16,45</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-30,75</t>
+          <t>-31,02</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-32,64</t>
+          <t>-32,6</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-31,71</t>
+          <t>-31,83</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-37,55; -22,75</t>
+          <t>-37,96; -23,0</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-39,7; -25,83</t>
+          <t>-39,69; -25,88</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-36,78; -26,42</t>
+          <t>-36,88; -26,49</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-42,96%</t>
+          <t>-43,34%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-44,34%</t>
+          <t>-44,3%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-43,67%</t>
+          <t>-43,84%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-50,64; -33,94</t>
+          <t>-51,02; -34,16</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-51,61; -37,02</t>
+          <t>-51,45; -36,98</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-49,01; -37,75</t>
+          <t>-49,13; -37,91</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>11,68</t>
+          <t>11,53</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>13,83</t>
+          <t>13,75</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>5,51; 17,95</t>
+          <t>5,59; 17,97</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>10,91; 20,83</t>
+          <t>11,01; 20,9</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>9,81; 17,94</t>
+          <t>9,65; 17,98</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>21,63%</t>
+          <t>21,35%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>31,87%</t>
+          <t>31,86%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>26,64%</t>
+          <t>26,49%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>9,63; 34,85</t>
+          <t>9,64; 35,3</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>20,81; 44,69</t>
+          <t>20,84; 44,73</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>18,15; 36,14</t>
+          <t>17,87; 36,11</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>-2,84</t>
+          <t>-20,32</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>-1,56</t>
+          <t>-11,94</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-19,73; 3,77</t>
+          <t>-54,81; 3,41</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 2,98</t>
+          <t>-3,38; 2,91</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-9,53; 2,09</t>
+          <t>-41,41; 1,85</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-3,4%</t>
+          <t>-24,39%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>-1,82%</t>
+          <t>-13,9%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-23,61; 4,57</t>
+          <t>-64,65; 4,31</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 3,42</t>
+          <t>-3,73; 3,35</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-11,15; 2,45</t>
+          <t>-48,29; 2,16</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>-7,14</t>
+          <t>-11,9</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>-7,54</t>
+          <t>-9,75</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>-7,32</t>
+          <t>-10,85</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-10,5; -4,39</t>
+          <t>-25,65; -6,63</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-9,72; -5,32</t>
+          <t>-14,6; -7,08</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-9,56; -5,55</t>
+          <t>-19,69; -7,88</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>-10,13%</t>
+          <t>-16,89%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>-10,42%</t>
+          <t>-13,49%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>-10,26%</t>
+          <t>-15,2%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-15,05; -6,43</t>
+          <t>-36,76; -9,51</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-13,3; -7,45</t>
+          <t>-20,48; -10,0</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-13,31; -7,87</t>
+          <t>-27,36; -11,06</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P57GLOBAL_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P57GLOBAL_R-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,85; 4,39</t>
+          <t>-9,01; 4,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 8,94</t>
+          <t>-2,95; 9,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-37,47; -19,89</t>
+          <t>-36,47; -19,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,27; 0,8</t>
+          <t>-10,58; 0,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,59; 0,21</t>
+          <t>-10,7; 0,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-36,55; -24,52</t>
+          <t>-37,08; -24,85</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-7,86; 0,71</t>
+          <t>-8,17; 0,85</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 3,34</t>
+          <t>-5,11; 3,05</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-34,99; -24,19</t>
+          <t>-34,46; -24,26</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-11,67; 5,52</t>
+          <t>-10,76; 5,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 11,39</t>
+          <t>-3,6; 12,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-44,52; -25,04</t>
+          <t>-43,97; -24,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,03; 0,92</t>
+          <t>-11,28; 0,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-11,58; 0,16</t>
+          <t>-11,43; 0,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-39,42; -27,62</t>
+          <t>-40,11; -28,11</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-8,96; 0,77</t>
+          <t>-9,23; 0,99</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 3,98</t>
+          <t>-5,87; 3,57</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-40,06; -28,62</t>
+          <t>-39,4; -28,5</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-13,66; -0,52</t>
+          <t>-12,58; 0,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,63; 26,03</t>
+          <t>15,49; 26,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,99; 7,12</t>
+          <t>-6,39; 7,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-17,25; -4,56</t>
+          <t>-16,35; -4,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,24; 19,09</t>
+          <t>8,43; 18,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-16,99; -5,78</t>
+          <t>-17,67; -6,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-13,51; -4,24</t>
+          <t>-13,1; -4,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,98; 21,05</t>
+          <t>13,3; 21,36</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-10,58; -1,43</t>
+          <t>-10,22; -1,41</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-20,75; -0,9</t>
+          <t>-18,93; 0,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>22,21; 44,07</t>
+          <t>23,86; 45,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-10,63; 11,73</t>
+          <t>-9,9; 12,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-24,07; -6,84</t>
+          <t>-22,86; -6,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,5; 29,06</t>
+          <t>11,5; 28,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-23,67; -8,75</t>
+          <t>-24,6; -9,82</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-19,54; -6,7</t>
+          <t>-19,29; -6,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,07; 33,66</t>
+          <t>19,41; 33,4</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-15,46; -2,24</t>
+          <t>-15,05; -2,28</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,85; 9,66</t>
+          <t>-6,14; 9,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,11; 21,56</t>
+          <t>7,69; 21,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-23,35; -7,31</t>
+          <t>-22,96; -7,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>11,22; 25,8</t>
+          <t>11,25; 24,85</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>18,06; 31,71</t>
+          <t>17,76; 31,23</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,97; 4,29</t>
+          <t>-10,76; 3,3</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,05; 15,24</t>
+          <t>4,64; 14,8</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>14,7; 24,36</t>
+          <t>14,49; 23,89</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-14,42; -3,69</t>
+          <t>-14,56; -3,75</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-8,53; 15,9</t>
+          <t>-8,87; 15,17</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,33; 35,82</t>
+          <t>11,39; 36,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-34,52; -12,01</t>
+          <t>-34,31; -13,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>18,0; 47,68</t>
+          <t>18,53; 46,25</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>29,52; 60,17</t>
+          <t>28,13; 57,9</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-16,16; 7,88</t>
+          <t>-17,16; 6,01</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,92; 26,23</t>
+          <t>7,38; 25,46</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>23,1; 42,29</t>
+          <t>22,35; 41,15</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-22,75; -6,34</t>
+          <t>-23,2; -6,47</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-25,72; -11,24</t>
+          <t>-25,61; -11,3</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-31,45; -17,3</t>
+          <t>-31,67; -17,81</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-47,07; -30,98</t>
+          <t>-46,11; -29,83</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-14,61; -1,51</t>
+          <t>-14,37; -0,74</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-19,29; -5,82</t>
+          <t>-19,78; -5,5</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-53,78; -33,17</t>
+          <t>-55,95; -33,24</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-18,23; -8,12</t>
+          <t>-17,77; -8,27</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-23,63; -13,9</t>
+          <t>-24,06; -14,27</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-49,87; -34,28</t>
+          <t>-49,64; -34,52</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-34,32; -16,34</t>
+          <t>-34,4; -16,45</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-42,31; -24,86</t>
+          <t>-41,95; -25,72</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-62,38; -43,88</t>
+          <t>-62,59; -43,02</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-19,47; -2,13</t>
+          <t>-19,49; -1,17</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-26,2; -8,48</t>
+          <t>-26,46; -7,85</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-75,12; -47,97</t>
+          <t>-75,54; -47,29</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-24,68; -11,57</t>
+          <t>-24,04; -11,99</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-31,9; -19,83</t>
+          <t>-32,58; -20,1</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-67,39; -48,69</t>
+          <t>-69,47; -49,15</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-31,92; -14,44</t>
+          <t>-32,3; -13,65</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,54; 17,23</t>
+          <t>3,76; 18,03</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>4,56; 18,41</t>
+          <t>5,54; 19,25</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-19,62; -4,83</t>
+          <t>-19,9; -4,6</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 11,26</t>
+          <t>-0,28; 11,66</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,54; 11,59</t>
+          <t>0,89; 11,64</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-23,49; -11,99</t>
+          <t>-23,64; -11,1</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>3,02; 12,0</t>
+          <t>3,17; 12,12</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>4,72; 13,22</t>
+          <t>4,23; 12,96</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-38,56; -18,64</t>
+          <t>-38,02; -17,68</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>4,31; 22,79</t>
+          <t>4,41; 24,21</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>5,58; 24,08</t>
+          <t>6,69; 25,49</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-22,27; -6,3</t>
+          <t>-22,52; -5,64</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 13,75</t>
+          <t>-0,23; 14,38</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>0,6; 14,23</t>
+          <t>1,0; 14,16</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-27,49; -14,68</t>
+          <t>-27,54; -13,55</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>3,47; 14,83</t>
+          <t>3,63; 15,06</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>5,44; 16,45</t>
+          <t>4,99; 16,23</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-14,14; 1,49</t>
+          <t>-14,07; 1,8</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>1,03; 15,37</t>
+          <t>0,6; 15,48</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-37,96; -23,0</t>
+          <t>-38,88; -23,19</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 11,41</t>
+          <t>-2,81; 11,51</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,51; 14,59</t>
+          <t>1,13; 15,71</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-39,69; -25,88</t>
+          <t>-39,35; -25,85</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 4,74</t>
+          <t>-6,9; 4,56</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>2,93; 13,15</t>
+          <t>3,31; 13,22</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-36,88; -26,49</t>
+          <t>-36,76; -26,3</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-19,3; 2,21</t>
+          <t>-18,69; 2,78</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>1,38; 22,92</t>
+          <t>0,79; 23,09</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-51,02; -34,16</t>
+          <t>-51,03; -34,25</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 16,47</t>
+          <t>-3,69; 16,59</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>0,73; 20,9</t>
+          <t>1,48; 22,59</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-51,45; -36,98</t>
+          <t>-50,91; -36,78</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-8,11; 6,88</t>
+          <t>-9,3; 6,46</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>3,98; 19,04</t>
+          <t>4,41; 19,16</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-49,13; -37,91</t>
+          <t>-49,26; -37,53</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>1,89; 13,44</t>
+          <t>2,04; 13,67</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>26,14; 35,94</t>
+          <t>26,05; 36,48</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>5,59; 17,97</t>
+          <t>5,97; 18,43</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>16,09; 27,47</t>
+          <t>16,18; 26,78</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>33,98; 43,65</t>
+          <t>33,36; 42,67</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>11,01; 20,9</t>
+          <t>10,48; 21,14</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>11,11; 18,46</t>
+          <t>11,01; 18,83</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>31,78; 38,54</t>
+          <t>31,4; 38,34</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>9,65; 17,98</t>
+          <t>9,89; 18,02</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>3,27; 26,45</t>
+          <t>3,59; 27,26</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>45,73; 71,49</t>
+          <t>45,54; 72,88</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>9,64; 35,3</t>
+          <t>10,56; 36,57</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>30,76; 59,29</t>
+          <t>30,37; 57,11</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>63,94; 94,79</t>
+          <t>62,15; 91,92</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>20,84; 44,73</t>
+          <t>19,89; 45,23</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>21,07; 37,57</t>
+          <t>20,28; 37,9</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>58,63; 78,33</t>
+          <t>57,74; 77,84</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>17,87; 36,11</t>
+          <t>18,05; 36,17</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>4,54; 11,3</t>
+          <t>4,71; 11,47</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>6,67; 12,96</t>
+          <t>6,68; 13,28</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-54,81; 3,41</t>
+          <t>-56,32; 3,36</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 4,99</t>
+          <t>-1,57; 5,01</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>4,03; 9,48</t>
+          <t>4,23; 9,57</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 2,91</t>
+          <t>-3,44; 3,08</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>2,5; 6,94</t>
+          <t>2,3; 7,03</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>6,08; 10,3</t>
+          <t>6,14; 10,32</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-41,41; 1,85</t>
+          <t>-40,44; 1,79</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>5,27; 13,88</t>
+          <t>5,58; 14,32</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>7,71; 16,05</t>
+          <t>7,84; 16,51</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-64,65; 4,31</t>
+          <t>-67,03; 4,0</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 5,8</t>
+          <t>-1,73; 5,76</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>4,5; 11,05</t>
+          <t>4,71; 11,17</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 3,35</t>
+          <t>-3,8; 3,61</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>2,85; 8,21</t>
+          <t>2,6; 8,27</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>7,01; 12,26</t>
+          <t>7,01; 12,21</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-48,29; 2,16</t>
+          <t>-46,57; 2,11</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 0,71</t>
+          <t>-3,81; 0,68</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>9,25; 13,44</t>
+          <t>9,39; 13,82</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-25,65; -6,63</t>
+          <t>-25,26; -6,42</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>1,0; 5,23</t>
+          <t>0,99; 5,2</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>10,56; 14,63</t>
+          <t>10,43; 14,45</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-14,6; -7,08</t>
+          <t>-13,74; -6,81</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 2,4</t>
+          <t>-0,78; 2,31</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>10,47; 13,41</t>
+          <t>10,6; 13,41</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-19,69; -7,88</t>
+          <t>-19,1; -7,57</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 1,02</t>
+          <t>-5,34; 0,98</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>12,92; 19,52</t>
+          <t>13,08; 20,09</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-36,76; -9,51</t>
+          <t>-35,96; -9,21</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>1,37; 7,38</t>
+          <t>1,34; 7,32</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>14,37; 20,64</t>
+          <t>14,24; 20,41</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-20,48; -10,0</t>
+          <t>-18,93; -9,53</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 3,39</t>
+          <t>-1,09; 3,28</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>14,49; 18,99</t>
+          <t>14,65; 18,99</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-27,36; -11,06</t>
+          <t>-26,82; -10,67</t>
         </is>
       </c>
     </row>
